--- a/data/outputs/management/16.xlsx
+++ b/data/outputs/management/16.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -907,6 +912,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4206464</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1112,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1305,6 +1316,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1500,6 +1512,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>7531786</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1703,6 +1720,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1902,6 +1920,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>30669073</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2105,6 +2128,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2308,6 +2332,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2515,6 +2540,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2710,6 +2736,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2913,6 +2940,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3116,6 +3144,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3311,6 +3340,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3514,6 +3544,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
